--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H2">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I2">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J2">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N2">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P2">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q2">
-        <v>231.7446213242998</v>
+        <v>515.551272555985</v>
       </c>
       <c r="R2">
-        <v>2085.701591918698</v>
+        <v>4639.961453003863</v>
       </c>
       <c r="S2">
-        <v>0.4433079694891385</v>
+        <v>0.4889040705537726</v>
       </c>
       <c r="T2">
-        <v>0.4433079694891385</v>
+        <v>0.4889040705537725</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H3">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I3">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J3">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N3">
         <v>3.873479</v>
       </c>
       <c r="O3">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P3">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q3">
-        <v>23.66951921155178</v>
+        <v>27.42202429774311</v>
       </c>
       <c r="R3">
-        <v>213.025672903966</v>
+        <v>246.798218679688</v>
       </c>
       <c r="S3">
-        <v>0.04527779950402211</v>
+        <v>0.02600466726718281</v>
       </c>
       <c r="T3">
-        <v>0.04527779950402211</v>
+        <v>0.02600466726718281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H4">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I4">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J4">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N4">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O4">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P4">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q4">
-        <v>17.95782885962</v>
+        <v>40.33869959767556</v>
       </c>
       <c r="R4">
-        <v>161.62045973658</v>
+        <v>363.04829637908</v>
       </c>
       <c r="S4">
-        <v>0.03435181624798665</v>
+        <v>0.03825372079167505</v>
       </c>
       <c r="T4">
-        <v>0.03435181624798665</v>
+        <v>0.03825372079167504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H5">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I5">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J5">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N5">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P5">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q5">
-        <v>163.6520530519709</v>
+        <v>342.9957536391938</v>
       </c>
       <c r="R5">
-        <v>1472.868477467738</v>
+        <v>3086.961782752744</v>
       </c>
       <c r="S5">
-        <v>0.313052613375113</v>
+        <v>0.3252673964036249</v>
       </c>
       <c r="T5">
-        <v>0.313052613375113</v>
+        <v>0.3252673964036249</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H6">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I6">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J6">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N6">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P6">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q6">
-        <v>4.875556309962001</v>
+        <v>6.560302683456889</v>
       </c>
       <c r="R6">
-        <v>43.880006789658</v>
+        <v>59.042724151112</v>
       </c>
       <c r="S6">
-        <v>0.009326529157604999</v>
+        <v>0.006221221548160598</v>
       </c>
       <c r="T6">
-        <v>0.009326529157604997</v>
+        <v>0.006221221548160598</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.33198466666667</v>
+        <v>21.23829066666667</v>
       </c>
       <c r="H7">
-        <v>54.995954</v>
+        <v>63.714872</v>
       </c>
       <c r="I7">
-        <v>0.8831875137004506</v>
+        <v>0.9042366413687101</v>
       </c>
       <c r="J7">
-        <v>0.8831875137004505</v>
+        <v>0.90423664136871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N7">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P7">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q7">
-        <v>19.79741296761222</v>
+        <v>20.65305540848622</v>
       </c>
       <c r="R7">
-        <v>178.17671670851</v>
+        <v>185.877498676376</v>
       </c>
       <c r="S7">
-        <v>0.03787078592658522</v>
+        <v>0.01958556480429408</v>
       </c>
       <c r="T7">
-        <v>0.03787078592658522</v>
+        <v>0.01958556480429408</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I8">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J8">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N8">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P8">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q8">
-        <v>17.63054430556234</v>
+        <v>33.85461236529567</v>
       </c>
       <c r="R8">
-        <v>158.674898750061</v>
+        <v>304.6915112876611</v>
       </c>
       <c r="S8">
-        <v>0.03372574842265651</v>
+        <v>0.0321047753608556</v>
       </c>
       <c r="T8">
-        <v>0.03372574842265651</v>
+        <v>0.0321047753608556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I9">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J9">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N9">
         <v>3.873479</v>
       </c>
       <c r="O9">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P9">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q9">
-        <v>1.800717120276333</v>
+        <v>1.800717120276334</v>
       </c>
       <c r="R9">
         <v>16.206454082487</v>
       </c>
       <c r="S9">
-        <v>0.003444620400043463</v>
+        <v>0.001707643791963222</v>
       </c>
       <c r="T9">
-        <v>0.003444620400043462</v>
+        <v>0.001707643791963222</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I10">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J10">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N10">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O10">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P10">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q10">
-        <v>1.36618617309</v>
+        <v>2.648914105921667</v>
       </c>
       <c r="R10">
-        <v>12.29567555781</v>
+        <v>23.840226953295</v>
       </c>
       <c r="S10">
-        <v>0.002613399244719212</v>
+        <v>0.002512000178976914</v>
       </c>
       <c r="T10">
-        <v>0.002613399244719212</v>
+        <v>0.002512000178976914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I11">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J11">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N11">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P11">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q11">
-        <v>12.45023403581567</v>
+        <v>22.52344024839234</v>
       </c>
       <c r="R11">
-        <v>112.052106322341</v>
+        <v>202.710962235531</v>
       </c>
       <c r="S11">
-        <v>0.02381625057160832</v>
+        <v>0.0213592754135194</v>
       </c>
       <c r="T11">
-        <v>0.02381625057160831</v>
+        <v>0.0213592754135194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I12">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J12">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N12">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P12">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q12">
-        <v>0.3709199853090001</v>
+        <v>0.4307942122736668</v>
       </c>
       <c r="R12">
-        <v>3.338279867781</v>
+        <v>3.877147910463001</v>
       </c>
       <c r="S12">
-        <v>0.0007095387353140363</v>
+        <v>0.000408527832561465</v>
       </c>
       <c r="T12">
-        <v>0.0007095387353140361</v>
+        <v>0.0004085278325614651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>4.183953000000001</v>
       </c>
       <c r="I13">
-        <v>0.06719067092662021</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="J13">
-        <v>0.06719067092662019</v>
+        <v>0.05937834432696559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N13">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P13">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q13">
-        <v>1.506137076521667</v>
+        <v>1.356220461927667</v>
       </c>
       <c r="R13">
-        <v>13.555233688695</v>
+        <v>12.205984157349</v>
       </c>
       <c r="S13">
-        <v>0.002881113552278665</v>
+        <v>0.001286121749088983</v>
       </c>
       <c r="T13">
-        <v>0.002881113552278664</v>
+        <v>0.001286121749088983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H14">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I14">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J14">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N14">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P14">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q14">
-        <v>12.54752206384656</v>
+        <v>15.16314468555411</v>
       </c>
       <c r="R14">
-        <v>112.927698574619</v>
+        <v>136.468302169987</v>
       </c>
       <c r="S14">
-        <v>0.02400235438672824</v>
+        <v>0.01437941006800284</v>
       </c>
       <c r="T14">
-        <v>0.02400235438672824</v>
+        <v>0.01437941006800284</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H15">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I15">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J15">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N15">
         <v>3.873479</v>
       </c>
       <c r="O15">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P15">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q15">
-        <v>1.281556451452555</v>
+        <v>0.8065233161698889</v>
       </c>
       <c r="R15">
-        <v>11.534008063073</v>
+        <v>7.258709845529</v>
       </c>
       <c r="S15">
-        <v>0.002451509705090907</v>
+        <v>0.0007648366966821261</v>
       </c>
       <c r="T15">
-        <v>0.002451509705090907</v>
+        <v>0.0007648366966821261</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H16">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I16">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J16">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N16">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O16">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P16">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q16">
-        <v>0.9723041361100001</v>
+        <v>1.186422323029444</v>
       </c>
       <c r="R16">
-        <v>8.750737224990001</v>
+        <v>10.677800907265</v>
       </c>
       <c r="S16">
-        <v>0.00185993603580399</v>
+        <v>0.00112509993477316</v>
       </c>
       <c r="T16">
-        <v>0.00185993603580399</v>
+        <v>0.00112509993477316</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H17">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I17">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J17">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N17">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P17">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q17">
-        <v>8.860735298748779</v>
+        <v>10.08802521847522</v>
       </c>
       <c r="R17">
-        <v>79.74661768873901</v>
+        <v>90.792226966277</v>
       </c>
       <c r="S17">
-        <v>0.01694984138584268</v>
+        <v>0.009566607349661931</v>
       </c>
       <c r="T17">
-        <v>0.01694984138584268</v>
+        <v>0.009566607349661931</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H18">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I18">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J18">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N18">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P18">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q18">
-        <v>0.263980885611</v>
+        <v>0.1929484496801111</v>
       </c>
       <c r="R18">
-        <v>2.375827970499</v>
+        <v>1.736536047121</v>
       </c>
       <c r="S18">
-        <v>0.0005049732318075863</v>
+        <v>0.0001829755593230588</v>
       </c>
       <c r="T18">
-        <v>0.0005049732318075863</v>
+        <v>0.0001829755593230588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9925623333333333</v>
+        <v>0.6246503333333333</v>
       </c>
       <c r="H19">
-        <v>2.977687</v>
+        <v>1.873951</v>
       </c>
       <c r="I19">
-        <v>0.0478190809838148</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="J19">
-        <v>0.04781908098381479</v>
+        <v>0.02659497076804196</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N19">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O19">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P19">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q19">
-        <v>1.071906111989444</v>
+        <v>0.6074376769647778</v>
       </c>
       <c r="R19">
-        <v>9.647155007904999</v>
+        <v>5.466939092683</v>
       </c>
       <c r="S19">
-        <v>0.002050466238541398</v>
+        <v>0.0005760411595988404</v>
       </c>
       <c r="T19">
-        <v>0.002050466238541398</v>
+        <v>0.0005760411595988404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H20">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J20">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.64154566666667</v>
+        <v>24.27461233333333</v>
       </c>
       <c r="N20">
-        <v>37.924637</v>
+        <v>72.823837</v>
       </c>
       <c r="O20">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="P20">
-        <v>0.5019409384896429</v>
+        <v>0.540681551915145</v>
       </c>
       <c r="Q20">
-        <v>0.4730297834524444</v>
+        <v>5.581801458376001</v>
       </c>
       <c r="R20">
-        <v>4.257268051072001</v>
+        <v>50.236213125384</v>
       </c>
       <c r="S20">
-        <v>0.0009048661911196728</v>
+        <v>0.005293295932513997</v>
       </c>
       <c r="T20">
-        <v>0.0009048661911196727</v>
+        <v>0.005293295932513997</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H21">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I21">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J21">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.291159666666666</v>
+        <v>1.291159666666667</v>
       </c>
       <c r="N21">
         <v>3.873479</v>
       </c>
       <c r="O21">
-        <v>0.05126634921989954</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="P21">
-        <v>0.05126634921989955</v>
+        <v>0.0287586966480594</v>
       </c>
       <c r="Q21">
-        <v>0.04831347318044443</v>
+        <v>0.296894418392</v>
       </c>
       <c r="R21">
-        <v>0.434821258624</v>
+        <v>2.672049765528</v>
       </c>
       <c r="S21">
-        <v>9.241961074306494E-05</v>
+        <v>0.00028154889223124</v>
       </c>
       <c r="T21">
-        <v>9.241961074306494E-05</v>
+        <v>0.00028154889223124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H22">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I22">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J22">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9795900000000001</v>
+        <v>1.899338333333333</v>
       </c>
       <c r="N22">
-        <v>2.93877</v>
+        <v>5.698015</v>
       </c>
       <c r="O22">
-        <v>0.03889526936817372</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="P22">
-        <v>0.03889526936817373</v>
+        <v>0.04230498858547889</v>
       </c>
       <c r="Q22">
-        <v>0.03665495168</v>
+        <v>0.43674145372</v>
       </c>
       <c r="R22">
-        <v>0.32989456512</v>
+        <v>3.93067308348</v>
       </c>
       <c r="S22">
-        <v>7.011783966387762E-05</v>
+        <v>0.000414167680053768</v>
       </c>
       <c r="T22">
-        <v>7.011783966387762E-05</v>
+        <v>0.000414167680053768</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H23">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I23">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J23">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.927132333333335</v>
+        <v>16.14987566666667</v>
       </c>
       <c r="N23">
-        <v>26.781397</v>
+        <v>48.449627</v>
       </c>
       <c r="O23">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="P23">
-        <v>0.3544576984149831</v>
+        <v>0.3597149037350217</v>
       </c>
       <c r="Q23">
-        <v>0.3340413890702222</v>
+        <v>3.713567010296</v>
       </c>
       <c r="R23">
-        <v>3.006372501632</v>
+        <v>33.422103092664</v>
       </c>
       <c r="S23">
-        <v>0.0006389930824190574</v>
+        <v>0.003521624568215493</v>
       </c>
       <c r="T23">
-        <v>0.0006389930824190573</v>
+        <v>0.003521624568215493</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H24">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I24">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J24">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.265959</v>
+        <v>0.3088903333333333</v>
       </c>
       <c r="N24">
-        <v>0.7978769999999999</v>
+        <v>0.926671</v>
       </c>
       <c r="O24">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="P24">
-        <v>0.01056007814074267</v>
+        <v>0.006880081234867635</v>
       </c>
       <c r="Q24">
-        <v>0.009951831167999999</v>
+        <v>0.07102747880800001</v>
       </c>
       <c r="R24">
-        <v>0.08956648051199999</v>
+        <v>0.639247309272</v>
       </c>
       <c r="S24">
-        <v>1.903701601605286E-05</v>
+        <v>6.735629482251366E-05</v>
       </c>
       <c r="T24">
-        <v>1.903701601605286E-05</v>
+        <v>6.735629482251368E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.03741866666666666</v>
+        <v>0.229944</v>
       </c>
       <c r="H25">
-        <v>0.112256</v>
+        <v>0.689832</v>
       </c>
       <c r="I25">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="J25">
-        <v>0.001802734389114475</v>
+        <v>0.009790043536282392</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.079938333333333</v>
+        <v>0.9724443333333334</v>
       </c>
       <c r="N25">
-        <v>3.239815</v>
+        <v>2.917333</v>
       </c>
       <c r="O25">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="P25">
-        <v>0.04287966636655803</v>
+        <v>0.02165977788142728</v>
       </c>
       <c r="Q25">
-        <v>0.04040985251555555</v>
+        <v>0.223607739784</v>
       </c>
       <c r="R25">
-        <v>0.3636886726399999</v>
+        <v>2.012469658056</v>
       </c>
       <c r="S25">
-        <v>7.730064915274949E-05</v>
+        <v>0.0002120501684453795</v>
       </c>
       <c r="T25">
-        <v>7.730064915274948E-05</v>
+        <v>0.0002120501684453795</v>
       </c>
     </row>
   </sheetData>
